--- a/Project 2.xlsx
+++ b/Project 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bugs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bugs\Desktop\CS 2400 Project 2\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5975D90-514B-45C4-9960-08910A3D460E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F64E4E9-EFBA-429C-BA78-219479757C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3390" windowWidth="22560" windowHeight="12210" xr2:uid="{ABF7A3E8-3E3B-4A3A-83C0-97D392ED3E9F}"/>
+    <workbookView xWindow="-3795" yWindow="1485" windowWidth="13020" windowHeight="12210" xr2:uid="{ABF7A3E8-3E3B-4A3A-83C0-97D392ED3E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,146 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+  <si>
+    <t>Infix:</t>
+  </si>
+  <si>
+    <t>Task 1</t>
+  </si>
+  <si>
+    <t>a*b/(c-a)+d*e</t>
+  </si>
+  <si>
+    <t>Postfix:</t>
+  </si>
+  <si>
+    <t>Next Character From Infix</t>
+  </si>
+  <si>
+    <t>Postfix Form</t>
+  </si>
+  <si>
+    <t>Operator Stack</t>
+  </si>
+  <si>
+    <t>ab*ca-/de*+</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>ab*</t>
+  </si>
+  <si>
+    <t>ab*c</t>
+  </si>
+  <si>
+    <t>ab*ca-</t>
+  </si>
+  <si>
+    <t>ab*ca-/</t>
+  </si>
+  <si>
+    <t>ab*ca-/d</t>
+  </si>
+  <si>
+    <t>ab*ca-/de</t>
+  </si>
+  <si>
+    <t>Task 4</t>
+  </si>
+  <si>
+    <t>Answer:</t>
+  </si>
+  <si>
+    <t>a = 2, b = 3, c = 4, d = 5, e = 6</t>
+  </si>
+  <si>
+    <t>2 3</t>
+  </si>
+  <si>
+    <t>2 3 *</t>
+  </si>
+  <si>
+    <t>2 3 * 4</t>
+  </si>
+  <si>
+    <t>(*</t>
+  </si>
+  <si>
+    <t>(/</t>
+  </si>
+  <si>
+    <t>(/(</t>
+  </si>
+  <si>
+    <t>(/(-</t>
+  </si>
+  <si>
+    <t>(+*</t>
+  </si>
+  <si>
+    <t>ab*ca</t>
+  </si>
+  <si>
+    <t>2 3 * 4 5</t>
+  </si>
+  <si>
+    <t>2 3 * 4 5 -</t>
+  </si>
+  <si>
+    <t>2 3 * 4 5 - /</t>
+  </si>
+  <si>
+    <t>2 3 * 4 5 - / 5</t>
+  </si>
+  <si>
+    <t>2 3 * 4 5 - / 5 6</t>
+  </si>
+  <si>
+    <t>2 3*4 5-/5 6*+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,16 +181,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -61,14 +222,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,12 +618,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E837CB8D-84AF-47A6-B2FC-62A69E1E124F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3">
+        <f>2*3/(4-2)+5*6</f>
+        <v>33</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="5">
+        <v>4</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="5">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project 2.xlsx
+++ b/Project 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bugs\Desktop\CS 2400 Project 2\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F64E4E9-EFBA-429C-BA78-219479757C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591D01AE-A9DF-4099-A773-1D320644961D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3795" yWindow="1485" windowWidth="13020" windowHeight="12210" xr2:uid="{ABF7A3E8-3E3B-4A3A-83C0-97D392ED3E9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABF7A3E8-3E3B-4A3A-83C0-97D392ED3E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
